--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>764.6225979687957</v>
+        <v>2620.274637569469</v>
       </c>
       <c r="R2">
-        <v>764.6225979687957</v>
+        <v>23582.47173812522</v>
       </c>
       <c r="S2">
-        <v>0.005701820015911797</v>
+        <v>0.01713642911526152</v>
       </c>
       <c r="T2">
-        <v>0.005701820015911797</v>
+        <v>0.01713642911526152</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>19540.85254588652</v>
+        <v>20097.70859421536</v>
       </c>
       <c r="R3">
-        <v>19540.85254588652</v>
+        <v>180879.3773479383</v>
       </c>
       <c r="S3">
-        <v>0.1457168863045606</v>
+        <v>0.131437733192509</v>
       </c>
       <c r="T3">
-        <v>0.1457168863045606</v>
+        <v>0.1314377331925089</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>10926.70930325424</v>
+        <v>12316.65408051365</v>
       </c>
       <c r="R4">
-        <v>10926.70930325424</v>
+        <v>110849.8867246228</v>
       </c>
       <c r="S4">
-        <v>0.0814808900218866</v>
+        <v>0.08055013263178334</v>
       </c>
       <c r="T4">
-        <v>0.0814808900218866</v>
+        <v>0.08055013263178334</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>3245.214492029061</v>
+        <v>3341.670231666488</v>
       </c>
       <c r="R5">
-        <v>3245.214492029061</v>
+        <v>30075.03208499839</v>
       </c>
       <c r="S5">
-        <v>0.0241996888343777</v>
+        <v>0.02185431031941366</v>
       </c>
       <c r="T5">
-        <v>0.0241996888343777</v>
+        <v>0.02185431031941366</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>1297.069718649213</v>
+        <v>4368.883432414062</v>
       </c>
       <c r="R6">
-        <v>1297.069718649213</v>
+        <v>39319.95089172656</v>
       </c>
       <c r="S6">
-        <v>0.009672298599954514</v>
+        <v>0.02857221917846356</v>
       </c>
       <c r="T6">
-        <v>0.009672298599954514</v>
+        <v>0.02857221917846356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>33148.18079035268</v>
+        <v>33509.67293573452</v>
       </c>
       <c r="R7">
-        <v>33148.18079035268</v>
+        <v>301587.0564216106</v>
       </c>
       <c r="S7">
-        <v>0.2471872545012189</v>
+        <v>0.2191511251169709</v>
       </c>
       <c r="T7">
-        <v>0.2471872545012189</v>
+        <v>0.2191511251169709</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>18535.55440211055</v>
+        <v>20536.02518743783</v>
       </c>
       <c r="R8">
-        <v>18535.55440211055</v>
+        <v>184824.2266869404</v>
       </c>
       <c r="S8">
-        <v>0.1382203395200844</v>
+        <v>0.1343042957741958</v>
       </c>
       <c r="T8">
-        <v>0.1382203395200844</v>
+        <v>0.1343042957741958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>5505.02883293578</v>
+        <v>5571.693708130211</v>
       </c>
       <c r="R9">
-        <v>5505.02883293578</v>
+        <v>50145.2433731719</v>
       </c>
       <c r="S9">
-        <v>0.04105121097805399</v>
+        <v>0.03643852171537521</v>
       </c>
       <c r="T9">
-        <v>0.04105121097805399</v>
+        <v>0.03643852171537521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>568.027995750719</v>
+        <v>2250.878532014568</v>
       </c>
       <c r="R10">
-        <v>568.027995750719</v>
+        <v>20257.90678813111</v>
       </c>
       <c r="S10">
-        <v>0.004235806533018379</v>
+        <v>0.01472060212997766</v>
       </c>
       <c r="T10">
-        <v>0.004235806533018379</v>
+        <v>0.01472060212997766</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>14516.64041369758</v>
+        <v>17264.41196994744</v>
       </c>
       <c r="R11">
-        <v>14516.64041369758</v>
+        <v>155379.707729527</v>
       </c>
       <c r="S11">
-        <v>0.1082511438904568</v>
+        <v>0.1129081538621096</v>
       </c>
       <c r="T11">
-        <v>0.1082511438904568</v>
+        <v>0.1129081538621096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>8117.307547757743</v>
+        <v>10580.30019394972</v>
       </c>
       <c r="R12">
-        <v>8117.307547757743</v>
+        <v>95222.70174554751</v>
       </c>
       <c r="S12">
-        <v>0.06053107346561295</v>
+        <v>0.06919448888761776</v>
       </c>
       <c r="T12">
-        <v>0.06053107346561295</v>
+        <v>0.06919448888761776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>2410.826842661121</v>
+        <v>2870.574586985762</v>
       </c>
       <c r="R13">
-        <v>2410.826842661121</v>
+        <v>25835.17128287186</v>
       </c>
       <c r="S13">
-        <v>0.01797762815655574</v>
+        <v>0.01877337483050323</v>
       </c>
       <c r="T13">
-        <v>0.01797762815655574</v>
+        <v>0.01877337483050323</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H14">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>344.3159532053842</v>
+        <v>1200.194488081425</v>
       </c>
       <c r="R14">
-        <v>344.3159532053842</v>
+        <v>10801.75039273283</v>
       </c>
       <c r="S14">
-        <v>0.002567577258374894</v>
+        <v>0.007849195452508997</v>
       </c>
       <c r="T14">
-        <v>0.002567577258374894</v>
+        <v>0.007849195452508997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H15">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>8799.409393151831</v>
+        <v>9205.584304788152</v>
       </c>
       <c r="R15">
-        <v>8799.409393151831</v>
+        <v>82850.25874309336</v>
       </c>
       <c r="S15">
-        <v>0.06561753306710788</v>
+        <v>0.06020393459591464</v>
       </c>
       <c r="T15">
-        <v>0.06561753306710788</v>
+        <v>0.06020393459591463</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H16">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>4920.388619356055</v>
+        <v>5641.538534582774</v>
       </c>
       <c r="R16">
-        <v>4920.388619356055</v>
+        <v>50773.84681124497</v>
       </c>
       <c r="S16">
-        <v>0.03669152650004977</v>
+        <v>0.03689530242851539</v>
       </c>
       <c r="T16">
-        <v>0.03669152650004977</v>
+        <v>0.03689530242851539</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>1461.347237378555</v>
+        <v>1530.62359781955</v>
       </c>
       <c r="R17">
-        <v>1461.347237378555</v>
+        <v>13775.61238037595</v>
       </c>
       <c r="S17">
-        <v>0.01089732235277526</v>
+        <v>0.01001018076887976</v>
       </c>
       <c r="T17">
-        <v>0.01089732235277526</v>
+        <v>0.01001018076887976</v>
       </c>
     </row>
   </sheetData>
